--- a/biology/Zoologie/Drosophila_santomea/Drosophila_santomea.xlsx
+++ b/biology/Zoologie/Drosophila_santomea/Drosophila_santomea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drosophila santomea est une espèce d'insectes diptères du genre Drosophila. Cette mouche appartient au même sous-groupe que Drosophila melanogaster. Elle a été décrite et découverte en 2000 par D. Lachaise et M. Harry sur l'ile volcanique de Sao Tomé[1] dont elle est endémique[1] et où elle s'hybride avec Drosophila yakuba[2] ; la divergence entre ces deux espèces sœurs est d'environ 0,5/1 million d'années[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosophila santomea est une espèce d'insectes diptères du genre Drosophila. Cette mouche appartient au même sous-groupe que Drosophila melanogaster. Elle a été décrite et découverte en 2000 par D. Lachaise et M. Harry sur l'ile volcanique de Sao Tomé dont elle est endémique et où elle s'hybride avec Drosophila yakuba ; la divergence entre ces deux espèces sœurs est d'environ 0,5/1 million d'années.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t xml:space="preserve">Génétique de l'évolution morphologique et comportementale </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du sous-groupe, D. santomea a fait l'objet de nombreuses études génétiques comparatives avec D. yakuba son groupe frère. Bien que très proches génétiquement[4], ces deux espèces montrent des différences morphologiques au niveau de la pigmentation de leur abdomen[1] et la forme de leur appendices sexuels[5]. Des différences de comportement ont également été observées, notamment dans le comportement de parade nuptiale[6]. Des travaux récents ont permis d'identifier les régions chromosomiques[6],[7] et même les gènes[8] impliqués dans ces différences morphologiques et comportementales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du sous-groupe, D. santomea a fait l'objet de nombreuses études génétiques comparatives avec D. yakuba son groupe frère. Bien que très proches génétiquement, ces deux espèces montrent des différences morphologiques au niveau de la pigmentation de leur abdomen et la forme de leur appendices sexuels. Des différences de comportement ont également été observées, notamment dans le comportement de parade nuptiale. Des travaux récents ont permis d'identifier les régions chromosomiques, et même les gènes impliqués dans ces différences morphologiques et comportementales.
 </t>
         </is>
       </c>
